--- a/static/docs/excel_temporal.xlsx
+++ b/static/docs/excel_temporal.xlsx
@@ -58,10 +58,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,8 +499,463 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Empleado</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CASTELLANOS LEAL ANGEL ALFONSO - 11258909 - 3851 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Id Concepto</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Nombre Concepto</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sueldo Basico</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Auxilio de Transporte</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Auxilio de Rodamiento</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EPS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>70</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cesantias</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>112</v>
+      </c>
+      <c r="E14" t="n">
+        <v>470400</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Intereses de Cesantias</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>112</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17562</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Prima de Servicios</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>112</v>
+      </c>
+      <c r="E16" t="n">
+        <v>470400</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vacaciones</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>210150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1509312</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Empleado</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIAZ DIAZ MIGUEL ANGEL  - 1075629124 - 3781 </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Id Concepto</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Nombre Concepto</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sueldo Basico</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Auxilio de Transporte</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Auxilio de Rodamiento</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>EPS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-3867</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>70</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3867</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>94</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Dsct. Autorizado Herramienta</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-76000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cesantias</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>108</v>
+      </c>
+      <c r="E28" t="n">
+        <v>483600</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Intereses de Cesantias</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>108</v>
+      </c>
+      <c r="E29" t="n">
+        <v>17410</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>23</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Prima de Servicios</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>108</v>
+      </c>
+      <c r="E30" t="n">
+        <v>483600</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>32</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Vacaciones</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>217500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1285842</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Empleado</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OVALLE RIAÑO JAVIER None - 79845008 - 2397 </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Id Concepto</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Nombre Concepto</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Vacaciones Compensadas</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>15</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3134000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3134000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C34:H34"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/docs/excel_temporal.xlsx
+++ b/static/docs/excel_temporal.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>Mayo</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -473,10 +473,8 @@
           <t>Año</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D2" s="2" t="n">
+        <v>2024</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
@@ -485,7 +483,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>JUNIO</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -493,10 +491,8 @@
           <t>Año</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="H2" s="2" t="n">
+        <v>2024</v>
       </c>
     </row>
     <row r="7">

--- a/static/docs/excel_temporal.xlsx
+++ b/static/docs/excel_temporal.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Mayo</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1509312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1285842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3134000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
